--- a/Excel Files/Test Data.xlsx
+++ b/Excel Files/Test Data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arcadier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Arctick\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F4C16-0A3D-4AB2-9FEA-DAAD55B4A69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26320324-8DA0-4228-9E67-50497BEB4845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="623" activeTab="1" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin Delivery " sheetId="2" r:id="rId2"/>
-    <sheet name="Merchant Delivery " sheetId="3" r:id="rId3"/>
-    <sheet name="Seller Name" sheetId="4" r:id="rId4"/>
-    <sheet name="Buyer Name" sheetId="5" r:id="rId5"/>
-    <sheet name="Custom Fields" sheetId="6" r:id="rId6"/>
+    <sheet name="Add Item No Variants" sheetId="7" r:id="rId2"/>
+    <sheet name="Admin Delivery " sheetId="2" r:id="rId3"/>
+    <sheet name="Merchant Delivery " sheetId="3" r:id="rId4"/>
+    <sheet name="Seller Name" sheetId="4" r:id="rId5"/>
+    <sheet name="Buyer Name" sheetId="5" r:id="rId6"/>
+    <sheet name="Custom Fields" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="830">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -2267,13 +2268,271 @@
   </si>
   <si>
     <t>Description 20</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>item001</t>
+  </si>
+  <si>
+    <t>item002</t>
+  </si>
+  <si>
+    <t>item003</t>
+  </si>
+  <si>
+    <t>item004</t>
+  </si>
+  <si>
+    <t>item005</t>
+  </si>
+  <si>
+    <t>item006</t>
+  </si>
+  <si>
+    <t>item007</t>
+  </si>
+  <si>
+    <t>item008</t>
+  </si>
+  <si>
+    <t>item009</t>
+  </si>
+  <si>
+    <t>item010</t>
+  </si>
+  <si>
+    <t>item011</t>
+  </si>
+  <si>
+    <t>item012</t>
+  </si>
+  <si>
+    <t>item013</t>
+  </si>
+  <si>
+    <t>item014</t>
+  </si>
+  <si>
+    <t>item015</t>
+  </si>
+  <si>
+    <t>item016</t>
+  </si>
+  <si>
+    <t>item017</t>
+  </si>
+  <si>
+    <t>item018</t>
+  </si>
+  <si>
+    <t>item019</t>
+  </si>
+  <si>
+    <t>item020</t>
+  </si>
+  <si>
+    <t>SKU0001</t>
+  </si>
+  <si>
+    <t>SKU0002</t>
+  </si>
+  <si>
+    <t>SKU0003</t>
+  </si>
+  <si>
+    <t>SKU0004</t>
+  </si>
+  <si>
+    <t>SKU0005</t>
+  </si>
+  <si>
+    <t>SKU0006</t>
+  </si>
+  <si>
+    <t>SKU0007</t>
+  </si>
+  <si>
+    <t>SKU0008</t>
+  </si>
+  <si>
+    <t>SKU0009</t>
+  </si>
+  <si>
+    <t>SKU0010</t>
+  </si>
+  <si>
+    <t>SKU0011</t>
+  </si>
+  <si>
+    <t>SKU0012</t>
+  </si>
+  <si>
+    <t>SKU0013</t>
+  </si>
+  <si>
+    <t>SKU0014</t>
+  </si>
+  <si>
+    <t>SKU0015</t>
+  </si>
+  <si>
+    <t>SKU0016</t>
+  </si>
+  <si>
+    <t>SKU0017</t>
+  </si>
+  <si>
+    <t>SKU0018</t>
+  </si>
+  <si>
+    <t>SKU0019</t>
+  </si>
+  <si>
+    <t>SKU0020</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Description3</t>
+  </si>
+  <si>
+    <t>Description4</t>
+  </si>
+  <si>
+    <t>Description5</t>
+  </si>
+  <si>
+    <t>Description6</t>
+  </si>
+  <si>
+    <t>Description7</t>
+  </si>
+  <si>
+    <t>Description8</t>
+  </si>
+  <si>
+    <t>Description9</t>
+  </si>
+  <si>
+    <t>Description10</t>
+  </si>
+  <si>
+    <t>Description11</t>
+  </si>
+  <si>
+    <t>Description12</t>
+  </si>
+  <si>
+    <t>Description13</t>
+  </si>
+  <si>
+    <t>Description14</t>
+  </si>
+  <si>
+    <t>Description15</t>
+  </si>
+  <si>
+    <t>Description16</t>
+  </si>
+  <si>
+    <t>Description17</t>
+  </si>
+  <si>
+    <t>Description18</t>
+  </si>
+  <si>
+    <t>Description19</t>
+  </si>
+  <si>
+    <t>Description20</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\1.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\2.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\3.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\4.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\5.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\6.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\7.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\8.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\9.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\10.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\11.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\12.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\13.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\14.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\15.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\16.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\17.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\18.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\19.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\20.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2321,6 +2580,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4A4A4A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2421,7 +2686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2483,6 +2748,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2490,9 +2761,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2811,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D89469-70B5-42D0-9A59-1DD22F5E00A8}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
@@ -3452,12 +3720,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="23" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="23" t="s">
         <v>723</v>
       </c>
     </row>
@@ -3469,6 +3737,515 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B76FD3E-248E-4821-B29D-7C667A8F0C7E}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>772</v>
+      </c>
+      <c r="E4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F5" t="s">
+        <v>813</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>774</v>
+      </c>
+      <c r="E6" t="s">
+        <v>794</v>
+      </c>
+      <c r="F6" t="s">
+        <v>814</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" t="s">
+        <v>795</v>
+      </c>
+      <c r="F7" t="s">
+        <v>815</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E8" t="s">
+        <v>796</v>
+      </c>
+      <c r="F8" t="s">
+        <v>816</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>777</v>
+      </c>
+      <c r="E9" t="s">
+        <v>797</v>
+      </c>
+      <c r="F9" t="s">
+        <v>817</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E10" t="s">
+        <v>798</v>
+      </c>
+      <c r="F10" t="s">
+        <v>818</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>779</v>
+      </c>
+      <c r="E11" t="s">
+        <v>799</v>
+      </c>
+      <c r="F11" t="s">
+        <v>819</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>760</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>780</v>
+      </c>
+      <c r="E12" t="s">
+        <v>800</v>
+      </c>
+      <c r="F12" t="s">
+        <v>820</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>781</v>
+      </c>
+      <c r="E13" t="s">
+        <v>801</v>
+      </c>
+      <c r="F13" t="s">
+        <v>821</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>782</v>
+      </c>
+      <c r="E14" t="s">
+        <v>802</v>
+      </c>
+      <c r="F14" t="s">
+        <v>822</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>763</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>783</v>
+      </c>
+      <c r="E15" t="s">
+        <v>803</v>
+      </c>
+      <c r="F15" t="s">
+        <v>823</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>764</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E16" t="s">
+        <v>804</v>
+      </c>
+      <c r="F16" t="s">
+        <v>824</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>765</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>785</v>
+      </c>
+      <c r="E17" t="s">
+        <v>805</v>
+      </c>
+      <c r="F17" t="s">
+        <v>825</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>766</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>786</v>
+      </c>
+      <c r="E18" t="s">
+        <v>806</v>
+      </c>
+      <c r="F18" t="s">
+        <v>826</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>767</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>787</v>
+      </c>
+      <c r="E19" t="s">
+        <v>807</v>
+      </c>
+      <c r="F19" t="s">
+        <v>827</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>768</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>788</v>
+      </c>
+      <c r="E20" t="s">
+        <v>808</v>
+      </c>
+      <c r="F20" t="s">
+        <v>828</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>769</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>789</v>
+      </c>
+      <c r="E21" t="s">
+        <v>809</v>
+      </c>
+      <c r="F21" t="s">
+        <v>829</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F829671-6FD4-4582-BD2D-2331AB94B0C3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
@@ -4335,7 +5112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE6B43-687D-4690-9912-AB38F18F794C}">
   <dimension ref="A1:AG31"/>
   <sheetViews>
@@ -5498,7 +6275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0C2BDA-D892-4B24-9F47-C0E0D73BE072}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
@@ -5522,22 +6299,22 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -6926,7 +7703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1B755A-BE89-4A69-9C59-9687521C23FC}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
@@ -8033,7 +8810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB8AEC5-3E6B-4D56-B1DB-99094E1E4BA7}">
   <dimension ref="A2:Z59"/>
   <sheetViews>
